--- a/Reports/heart/heart_distcorrgan_10_05.xlsx
+++ b/Reports/heart/heart_distcorrgan_10_05.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0511</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0369</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0664</v>
+        <v>1.0685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7423999999999999</v>
+        <v>0.8953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.225</v>
+        <v>-0.0964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.64</v>
+        <v>0.8312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1582</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.3368</v>
+        <v>1.3258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1735</v>
+        <v>-0.0598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0078</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.638</v>
+        <v>0.5826</v>
       </c>
     </row>
     <row r="13">
